--- a/csv/model/CIMS_FIC/formula_CIMS_FIC_MB.xlsx
+++ b/csv/model/CIMS_FIC/formula_CIMS_FIC_MB.xlsx
@@ -2,22 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_FIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1E072CB-094B-4464-B4B4-9ACB13570D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3DC1720-CED6-4599-8241-CDA8F5BDAD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="51840" windowHeight="21120" xr2:uid="{636442E6-5545-4E3D-ABE2-38EC7A84C22E}"/>
+    <workbookView xWindow="34965" yWindow="3495" windowWidth="17250" windowHeight="8865" xr2:uid="{641DF130-699C-4FB7-8093-252C428043F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -83,13 +80,13 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Natural Gas Extraction.Natural Gas.Exploration and Production.Conventional Production</t>
+    <t>CIMS.CAN.MB.Natural Gas Production.Natural Gas.Exploration and Production.Conventional Production</t>
   </si>
   <si>
     <t>MB</t>
   </si>
   <si>
-    <t>Natural Gas Extraction</t>
+    <t>Natural Gas Production</t>
   </si>
   <si>
     <t>Conventional Production</t>
@@ -110,7 +107,7 @@
     <t>Raw NG aggresive LDAR</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Natural Gas Extraction.Direct Heat</t>
+    <t>CIMS.CAN.MB.Natural Gas Production.Direct Heat</t>
   </si>
   <si>
     <t>Direct Heat</t>
@@ -122,7 +119,7 @@
     <t>Boilers improved thermal eff CCS</t>
   </si>
   <si>
-    <t>CIMS.CAN.MB.Natural Gas Extraction.Direct Drive Small</t>
+    <t>CIMS.CAN.MB.Natural Gas Production.Direct Drive Small</t>
   </si>
   <si>
     <t>Direct Drive Small</t>
@@ -583,19 +580,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="BC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,7 +898,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35F546F-F15C-414E-942D-E5C2597B6232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD75238-63D2-45E0-8DC3-CD5BE66E48CB}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1717,49 +1702,48 @@
       <c r="L13" t="s">
         <v>20</v>
       </c>
-      <c r="M13" t="e">
-        <f>[1]BC!$M$29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W13" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="M13">
+        <v>400000000</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -1787,49 +1771,48 @@
       <c r="L14" t="s">
         <v>20</v>
       </c>
-      <c r="M14" t="e">
-        <f>[1]BC!$M$30</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="M14">
+        <v>400000000</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
